--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Berisha</t>
+          <t>Montipo'</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ebuehi</t>
+          <t>Magnani</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,111 +479,111 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ismajli</t>
+          <t>Coppola D.</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luperto</t>
+          <t>Amione</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bastoni S.</t>
+          <t>Faraoni</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ranocchia F.</t>
+          <t>Duda</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Marin</t>
+          <t>Folorunsho</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Maleh</t>
+          <t>Lazovic</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Baldanzi</t>
+          <t>Suslov</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Caputo</t>
+          <t>Ngonge</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cancellieri</t>
+          <t>Djuric</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Perisan</t>
+          <t>Perilli</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Caprile</t>
+          <t>Berardi A.</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Walukiewicz</t>
+          <t>Terracciano F.</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Guarino</t>
+          <t>Charlys</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,85 +648,85 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cacace</t>
+          <t>Hongla</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Kovalenko</t>
+          <t>Joselito</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fazzini</t>
+          <t>Tchatchoua</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Grassi</t>
+          <t>Saponara</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gyasi</t>
+          <t>Serdar</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Shpendi S.</t>
+          <t>Bonazzoli</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.45</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Destro</t>
+          <t>Cruz</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cambiaghi</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Silvestri</t>
+          <t>Meret</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Perez N.</t>
+          <t>Di Lorenzo</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,98 +778,98 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Bijol</t>
+          <t>Rrahmani</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Kabasele</t>
+          <t>Natan</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Ebosele</t>
+          <t>Olivera</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pereyra</t>
+          <t xml:space="preserve">Cajuste </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Walace</t>
+          <t>Lobotka</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Samardzic</t>
+          <t>Zielinski</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Kamara H.</t>
+          <t>Politano</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lucca</t>
+          <t>Osimhen</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Thauvin</t>
+          <t>Kvaratskhelia</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Okoye</t>
+          <t>Contini</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,59 +908,59 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ferreira J.</t>
+          <t>Zanoli</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Zemura</t>
+          <t>Ostigard</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Kristensen T.</t>
+          <t>Mario Rui</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Guessand A.</t>
+          <t>Demme</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Camara E.</t>
+          <t>Zerbin</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,111 +973,111 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Zarraga</t>
+          <t>Gaetano</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Payero</t>
+          <t>Elmas</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quina</t>
+          <t>Lindstrom</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Pafundi</t>
+          <t>Raspadori</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Ake' M.</t>
+          <t>Simeone</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Milinkovic-Savic V.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Falcone</t>
+          <t>Tameze</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Gendrey</t>
+          <t>Schuurs</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Baschirotto</t>
+          <t>Rodriguez R.</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,85 +1090,85 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pongracic</t>
+          <t>Bellanova</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Gallo</t>
+          <t>Ilic</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Rafia</t>
+          <t>Ricci S.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ramadani</t>
+          <t>Lazaro</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Kaba</t>
+          <t>Vlasic</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Almqvist</t>
+          <t>Seck</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Krstovic</t>
+          <t>Zapata D.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,141 +1181,141 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Strefezza</t>
+          <t>Gemello</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Brancolini</t>
+          <t>Popa</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Venuti</t>
+          <t>N'guessan</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Dorgu</t>
+          <t>Sazonov</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Touba</t>
+          <t>Zima</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Smajlovic</t>
+          <t>Vojvoda</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Gonzalez J.</t>
+          <t>Gineitis</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Berisha M.</t>
+          <t>Linetty</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Oudin</t>
+          <t>Radonjic</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Piccoli</t>
+          <t>Sanabria</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Sansone</t>
+          <t>Karamoh</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C68" t="n">
         <v>50</v>
@@ -1324,72 +1324,72 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Corfitzen</t>
+          <t>Pellegri</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Consigli</t>
+          <t>Sommer</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Toljan</t>
+          <t>Pavard</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Erlic</t>
+          <t>Acerbi</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Tressoldi</t>
+          <t>Bastoni</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Dumfries</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,85 +1402,85 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Boloca</t>
+          <t>Barella</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Racic</t>
+          <t>Calhanoglu</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Berardi</t>
+          <t>Mkhitaryan</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Bajrami</t>
+          <t>Dimarco</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Lauriente'</t>
+          <t>Thuram</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Pinamonti</t>
+          <t>Martinez L.</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Cragno</t>
+          <t>Audero</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Pegolo</t>
+          <t>Di Gennaro</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ferrari G.</t>
+          <t>Darmian</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>50</v>
@@ -1519,267 +1519,267 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Missori</t>
+          <t>De Vrij</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Pedersen</t>
+          <t>Bisseck</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Obiang</t>
+          <t>Cuadrado</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Thorstvedt</t>
+          <t>Carlos Augusto</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lipani</t>
+          <t>Asllani</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Volpato</t>
+          <t>Frattesi</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Castillejo</t>
+          <t>Agoume</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Ceide</t>
+          <t>Sensi</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Defrel</t>
+          <t>Klaassen</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Mulattieri</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Sommer</t>
+          <t>Consigli</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Darmian</t>
+          <t>Toljan</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="C95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Acerbi</t>
+          <t>Erlic</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Bastoni</t>
+          <t>Ferrari G.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C97" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Dumfries</t>
+          <t>Vina</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Barella</t>
+          <t>Boloca</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Calhanoglu</t>
+          <t>Racic</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Mkhitaryan</t>
+          <t>Berardi</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Dimarco</t>
+          <t>Bajrami</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C102" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Thuram</t>
+          <t>Lauriente'</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Martinez L.</t>
+          <t>Pinamonti</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Audero</t>
+          <t>Cragno</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Di Gennaro</t>
+          <t>Pegolo</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,150 +1818,150 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Pavard</t>
+          <t>Tressoldi</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C107" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>De Vrij</t>
+          <t>Missori</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Bisseck</t>
+          <t>Pedersen</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C109" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Cuadrado</t>
+          <t>Obiang</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Carlos Augusto</t>
+          <t>Thorstvedt</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C111" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Asllani</t>
+          <t>Lipani</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Frattesi</t>
+          <t>Volpato</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Agoume</t>
+          <t>Castillejo</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Sensi</t>
+          <t>Ceide</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Klaassen</t>
+          <t>Defrel</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Mulattieri</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Skorupski</t>
+          <t>Provedel</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,33 +1974,33 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>De Silvestri</t>
+          <t>Hysaj</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Beukema</t>
+          <t>Casale</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Calafiori</t>
+          <t>Romagnoli</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,33 +2013,33 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Lykogiannis</t>
+          <t>Marusic</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Freuler</t>
+          <t>Guendouzi</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C123" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Aebischer</t>
+          <t>Rovella</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Orsolini</t>
+          <t>Luis Alberto</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ferguson</t>
+          <t>Felipe Anderson</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,33 +2078,33 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Ndoye</t>
+          <t>Castellanos</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C127" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Zirkzee</t>
+          <t>Zaccagni</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Ravaglia F.</t>
+          <t>Sepe</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Bagnolini</t>
+          <t>Mandas</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,33 +2130,33 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Corazza</t>
+          <t>Patric</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Bonifazi</t>
+          <t>Pellegrini Lu.</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Fabbian</t>
+          <t>Lazzari</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,50 +2169,50 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Moro N.</t>
+          <t>Gila</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>El Azzouzi</t>
+          <t>Vecino</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Urbanski</t>
+          <t>Cataldi</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C136" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Saelemaekers</t>
+          <t>Kamada</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C137" t="n">
         <v>60</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Karlsson</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>55</v>
@@ -2234,33 +2234,33 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Van Hooijdonk</t>
+          <t>Immobile</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Szczesny</t>
+          <t>Isaksen</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Danilo</t>
+          <t>Rui Patricio</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Bremer</t>
+          <t>Mancini</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,20 +2286,20 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Gatti</t>
+          <t>Llorente D.</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C143" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Mckennie</t>
+          <t>N'dicka</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Fagioli</t>
+          <t>Karsdorp</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Locatelli</t>
+          <t>Cristante</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Rabiot</t>
+          <t>Paredes</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,128 +2351,128 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Cambiaso</t>
+          <t>Aouar</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Chiesa</t>
+          <t>Spinazzola</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Milik</t>
+          <t>Belotti</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Perin</t>
+          <t>Lukaku</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Pinsoglio</t>
+          <t>Svilar</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Rugani</t>
+          <t>Boer</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Huijsen</t>
+          <t>Celik</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Kostic</t>
+          <t>Smalling</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C155" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Weah</t>
+          <t>Kristensen</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C156" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Miretti</t>
+          <t>Bove</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>60</v>
@@ -2481,33 +2481,33 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Nicolussi Caviglia</t>
+          <t>Zalewski</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Iling Junior</t>
+          <t>Renato Sanches</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Yildiz</t>
+          <t>Pagano</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Vlahovic</t>
+          <t>Pisilli</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Kean</t>
+          <t>El Shaarawy</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>55</v>
@@ -2546,46 +2546,46 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Milinkovic-Savic V.</t>
+          <t>Azmoun</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Tameze</t>
+          <t>Di Gregorio</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Schuurs</t>
+          <t>D'ambrosio</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C165" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Rodriguez R.</t>
+          <t>Mari'</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Bellanova</t>
+          <t>Caldirola</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,20 +2611,20 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Ilic</t>
+          <t>Ciurria</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Ricci S.</t>
+          <t>Gagliardini</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Lazaro</t>
+          <t>Pessina</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,267 +2650,267 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Vlasic</t>
+          <t>Kyriakopoulos</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C171" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Radonjic</t>
+          <t>Colpani</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Zapata D.</t>
+          <t>Vignato S.</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C173" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Gemello</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>N'guessan</t>
+          <t>Sorrentino A.</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Zima</t>
+          <t>Gori</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Vojvoda</t>
+          <t>Lamanna</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Gineitis</t>
+          <t>Birindelli</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C178" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Linetty</t>
+          <t>Carboni A.</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0.4</v>
       </c>
       <c r="C179" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Seck</t>
+          <t>Carboni F.</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Sanabria</t>
+          <t>Pereira P.</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Karamoh</t>
+          <t>Donati</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Pellegri</t>
+          <t>Machin</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Martinez Jo.</t>
+          <t>Bondo</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Bani</t>
+          <t>Carboni V.</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Dragusin</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Akpa Akpro</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>De Winter</t>
+          <t>Mota</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C188" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Thorsby</t>
+          <t>Maric</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Malinovskyi</t>
+          <t>Skorupski</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Frendrup</t>
+          <t>De Silvestri</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Matturro</t>
+          <t>Beukema</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Gudmundsson A.</t>
+          <t>Calafiori</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,193 +2949,193 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Retegui</t>
+          <t>Lykogiannis</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C194" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Leali</t>
+          <t>Freuler</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Sommariva</t>
+          <t>Aebischer</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Hefti</t>
+          <t>Orsolini</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Haps</t>
+          <t>Ferguson</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Vogliacco</t>
+          <t>Ndoye</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C199" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Zirkzee</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Sabelli</t>
+          <t>Ravaglia F.</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Messias</t>
+          <t>Corazza</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C202" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Jagiello</t>
+          <t>Bonifazi</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Kutlu</t>
+          <t>Fabbian</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Galdames</t>
+          <t>Moro N.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C205" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Puscas</t>
+          <t>El Azzouzi</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Maignan</t>
+          <t>Urbanski</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Calabria</t>
+          <t>Saelemaekers</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>60</v>
@@ -3144,59 +3144,59 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Thiaw</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C209" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Tomori</t>
+          <t>Van Hooijdonk</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Hernandez T.</t>
+          <t>Turati</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Musah</t>
+          <t>Oyono</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Adli</t>
+          <t>Okoli</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,319 +3209,319 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Reijnders</t>
+          <t>Monterisi</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C214" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Pulisic</t>
+          <t>Marchizza</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Giroud</t>
+          <t>Mazzitelli</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Rafael Leao</t>
+          <t>Barrenechea</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Sportiello</t>
+          <t>Soule'</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Mirante</t>
+          <t>Reinier</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Florenzi</t>
+          <t>Garritano</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C220" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Pellegrino</t>
+          <t>Cheddira</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Bartesaghi</t>
+          <t>Cerofolini</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Kjaer</t>
+          <t>Frattali</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Pobega</t>
+          <t>Mateus Lusuardi</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Romero L.</t>
+          <t>Romagnoli S.</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C225" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Chukwueze</t>
+          <t>Lirola</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Jovic</t>
+          <t>Bourabia</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Okafor</t>
+          <t>Brescianini</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Di Gregorio</t>
+          <t>Ibrahimovic A.</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Carboni A.</t>
+          <t>Lulic K.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Mari'</t>
+          <t>Baez</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C231" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Caldirola</t>
+          <t>Caso</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Ciurria</t>
+          <t>Bidaoui</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Gagliardini</t>
+          <t>Kvernadze</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Pessina</t>
+          <t>Cuni</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Kyriakopoulos</t>
+          <t>Ochoa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Colpani</t>
+          <t>Daniliuc</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Mota</t>
+          <t>Gyomber</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,475 +3534,475 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Colombo</t>
+          <t>Pirola</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Sorrentino A.</t>
+          <t>Mazzocchi</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Gori</t>
+          <t>Kastanos</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Birindelli</t>
+          <t>Coulibaly L.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>D'ambrosio</t>
+          <t>Legowski</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Carboni F.</t>
+          <t>Candreva</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Pereira P.</t>
+          <t>Jovane</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Izzo</t>
+          <t>Dia</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Donati</t>
+          <t>Costil</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Machin</t>
+          <t>Fazio</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Bondo</t>
+          <t>Sambia</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Carboni V.</t>
+          <t>Lovato</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bronn</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Akpa Akpro</t>
+          <t>Bradaric</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Vignato S.</t>
+          <t>Bohinen</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Maric</t>
+          <t>Maggiore</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Ochoa</t>
+          <t>Tchaouna</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Daniliuc</t>
+          <t>Martegani</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Gyomber</t>
+          <t>Sfait</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Lovato</t>
+          <t>Simy</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Mazzocchi</t>
+          <t>Botheim</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Legowski</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Maggiore</t>
+          <t>Scuffet</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Bradaric</t>
+          <t>Wieteska</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Kastanos</t>
+          <t>Dossena</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C263" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Dia</t>
+          <t>Hatzidiakos</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Jovane</t>
+          <t>Zappa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C265" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Costil</t>
+          <t>Nandez</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Fiorillo</t>
+          <t>Makoumbou</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Fazio</t>
+          <t>Prati</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Sambia</t>
+          <t>Azzi</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C269" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Pirola</t>
+          <t>Luvumbo</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Bronn</t>
+          <t>Petagna</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Tchaouna</t>
+          <t>Aresti</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Sfait</t>
+          <t>Goldaniga</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Bohinen</t>
+          <t>Obert</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C274" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Candreva</t>
+          <t>Augello</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,33 +4015,33 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Martegani</t>
+          <t>Di Pardo</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Botheim</t>
+          <t>Deiola</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Simy</t>
+          <t>Viola</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,85 +4054,85 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Stewart</t>
+          <t>Jankto</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Turati</t>
+          <t>Sulemana I.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C280" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Oyono</t>
+          <t>Oristanio</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Okoli</t>
+          <t>Pavoletti</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Monterisi</t>
+          <t>Shomurodov</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Marchizza</t>
+          <t>Carnesecchi</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Mazzitelli</t>
+          <t>Scalvini</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Barrenechea</t>
+          <t>Djimsiti</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,20 +4158,20 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Brescianini</t>
+          <t>Kolasinac</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Soule'</t>
+          <t>Zappacosta</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Cheddira</t>
+          <t>De Roon</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,254 +4197,254 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Baez</t>
+          <t>Ederson D.s.</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Cerofolini</t>
+          <t>Ruggeri</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Frattali</t>
+          <t>De Ketelaere</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Mateus Lusuardi</t>
+          <t>Lookman</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Bourabia</t>
+          <t>Scamacca</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Reinier</t>
+          <t>Musso</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Ibrahimovic A.</t>
+          <t>Rossi F.</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Lulic K.</t>
+          <t>Zortea</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Caso</t>
+          <t>Palomino</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Bidaoui</t>
+          <t>Holm</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Kvernadze</t>
+          <t>Hateboer</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Cuni</t>
+          <t>Bakker</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Montipo'</t>
+          <t>Adopo</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Faraoni</t>
+          <t>Miranchuk</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Magnani</t>
+          <t>Pasalic</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Coppola D.</t>
+          <t>Koopmeiners</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Terracciano F.</t>
+          <t>Muriel</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Suslov</t>
+          <t>Leali</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Folorunsho</t>
+          <t>Bani</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Lazovic</t>
+          <t>Dragusin</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,232 +4457,232 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Duda</t>
+          <t>Vasquez</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Ngonge</t>
+          <t>Sabelli</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Cruz</t>
+          <t>Thorsby</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Perilli</t>
+          <t>Frendrup</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Berardi A.</t>
+          <t>Malinovskyi</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Tchatchoua</t>
+          <t>Haps</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Saponara</t>
+          <t>Gudmundsson A.</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Charlys</t>
+          <t>Retegui</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C317" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Hongla</t>
+          <t>Sommariva</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Joselito</t>
+          <t>Hefti</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Serdar</t>
+          <t>Matturro</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Bonazzoli</t>
+          <t>Vogliacco</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Djuric</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>De Winter</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C323" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Provedel</t>
+          <t>Galdames</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Hysaj</t>
+          <t>Jagiello</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Casale</t>
+          <t>Kutlu</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Romagnoli</t>
+          <t>Puscas</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>55</v>
@@ -4691,72 +4691,72 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Marusic</t>
+          <t>Ekuban</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Kamada</t>
+          <t>Sportiello</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Cataldi</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Luis Alberto</t>
+          <t>Thiaw</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Felipe Anderson</t>
+          <t>Tomori</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Immobile</t>
+          <t>Florenzi</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,215 +4769,215 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Zaccagni</t>
+          <t>Musah</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Sepe</t>
+          <t>Adli</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Mandas</t>
+          <t>Reijnders</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Patric</t>
+          <t>Pulisic</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Lu.</t>
+          <t>Giroud</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Lazzari</t>
+          <t>Rafael Leao</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Gila</t>
+          <t>Mirante</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Vecino</t>
+          <t>Pellegrino</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Rovella</t>
+          <t>Bartesaghi</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Guendouzi</t>
+          <t>Kjaer</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Pobega</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Castellanos</t>
+          <t>Loftus-Cheek</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Isaksen</t>
+          <t>Romero L.</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Musso</t>
+          <t>Chukwueze</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Toloi</t>
+          <t>Jovic</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Scalvini</t>
+          <t>Okafor</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Kolasinac</t>
+          <t>Szczesny</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Zappacosta</t>
+          <t>Danilo</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>De Roon</t>
+          <t>Bremer</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,219 +5016,219 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Ederson D.s.</t>
+          <t>Gatti</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Ruggeri</t>
+          <t>Mckennie</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Koopmeiners</t>
+          <t>Fagioli</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C355" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Lookman</t>
+          <t>Locatelli</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>De Ketelaere</t>
+          <t>Rabiot</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Carnesecchi</t>
+          <t>Kostic</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C358" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Rossi F.</t>
+          <t>Milik</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Djimsiti</t>
+          <t>Chiesa</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C360" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Zortea</t>
+          <t>Perin</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Holm</t>
+          <t>Pinsoglio</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Hateboer</t>
+          <t>Rugani</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Palomino</t>
+          <t>Huijsen</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Bakker</t>
+          <t>Cambiaso</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C365" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Adopo</t>
+          <t>Weah</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Miranchuk</t>
+          <t>Nicolussi Caviglia</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Pasalic</t>
+          <t>Iling Junior</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Scamacca</t>
+          <t>Miretti</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C369" t="n">
         <v>60</v>
@@ -5237,46 +5237,46 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Muriel</t>
+          <t>Kean</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C370" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Scuffet</t>
+          <t>Vlahovic</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Wieteska</t>
+          <t>Yildiz</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Dossena</t>
+          <t>Silvestri</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,59 +5289,59 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Hatzidiakos</t>
+          <t>Perez N.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Zappa</t>
+          <t>Bijol</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Nandez</t>
+          <t>Kristensen T.</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Makoumbou</t>
+          <t>Ebosele</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Deiola</t>
+          <t>Samardzic</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Augello</t>
+          <t>Walace</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,124 +5367,124 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Oristanio</t>
+          <t>Lovric</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Petagna</t>
+          <t>Kamara H.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Radunovic</t>
+          <t>Lucca</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Aresti</t>
+          <t>Thauvin</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Goldaniga</t>
+          <t>Okoye</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Obert</t>
+          <t>Ferreira J.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Azzi</t>
+          <t>Zemura</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Di Pardo</t>
+          <t>Kabasele</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Prati</t>
+          <t>Guessand A.</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Camara E.</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Jankto</t>
+          <t>Zarraga</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,7 +5510,7 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Sulemana I.</t>
+          <t>Pereyra</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,72 +5523,72 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Mancosu</t>
+          <t>Payero</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Luvumbo</t>
+          <t>Quina</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Pavoletti</t>
+          <t>Pafundi</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Shomurodov</t>
+          <t>Ake' M.</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Rui Patricio</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Mancini</t>
+          <t>Falcone</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Cristante</t>
+          <t>Gendrey</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>N'dicka</t>
+          <t>Baschirotto</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Kristensen</t>
+          <t>Pongracic</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Bove</t>
+          <t>Gallo</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,46 +5653,46 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Paredes</t>
+          <t>Rafia</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C402" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Lo.</t>
+          <t>Ramadani</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Spinazzola</t>
+          <t>Kaba</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Dybala</t>
+          <t>Almqvist</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Lukaku</t>
+          <t>Krstovic</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,709 +5718,709 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Svilar</t>
+          <t>Strefezza</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Boer</t>
+          <t>Brancolini</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Karsdorp</t>
+          <t>Borbei</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Celik</t>
+          <t>Venuti</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Zalewski</t>
+          <t>Dorgu</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0.4</v>
       </c>
       <c r="C411" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Pagano</t>
+          <t>Touba</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Aouar</t>
+          <t>Smajlovic</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Pisilli</t>
+          <t>Gonzalez J.</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>El Shaarawy</t>
+          <t>Berisha M.</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Belotti</t>
+          <t>Oudin</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C416" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Azmoun</t>
+          <t>Faticanti</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Meret</t>
+          <t>Listkowski</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Di Lorenzo</t>
+          <t>Burnete</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Ostigard</t>
+          <t>Piccoli</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Natan</t>
+          <t>Sansone</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Mario Rui</t>
+          <t>Corfitzen</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Zambo Anguissa</t>
+          <t>Terracciano</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Lobotka</t>
+          <t>Kayode</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Zielinski</t>
+          <t>Milenkovic</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Politano</t>
+          <t>Martinez Quarta</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C426" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Osimhen</t>
+          <t>Biraghi</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C427" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Kvaratskhelia</t>
+          <t>Arthur Melo</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Contini</t>
+          <t>Mandragora</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Zanoli</t>
+          <t>Gonzalez N.</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C430" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Olivera</t>
+          <t>Bonaventura</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Demme</t>
+          <t>Brekalo</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Zerbin</t>
+          <t>Nzola</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cajuste </t>
+          <t>Martinelli T.</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Gaetano</t>
+          <t>Ranieri L.</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C435" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Elmas</t>
+          <t>Comuzzo</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Lindstrom</t>
+          <t>Parisi</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C437" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Raspadori</t>
+          <t>Infantino</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Simeone</t>
+          <t>Pierozzi</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Terracciano</t>
+          <t>Amatucci</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Kayode</t>
+          <t>Lopez M.</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Milenkovic</t>
+          <t>Duncan</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Martinez Quarta</t>
+          <t>Barak</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Biraghi</t>
+          <t>Sottil</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Lopez M.</t>
+          <t>Ikone'</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="C445" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Mandragora</t>
+          <t>Kouame'</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Gonzalez N.</t>
+          <t>Beltran L.</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Bonaventura</t>
+          <t>Berisha</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Brekalo</t>
+          <t>Ebuehi</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Nzola</t>
+          <t>Ismajli</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Christensen O.</t>
+          <t>Luperto</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Martinelli T.</t>
+          <t>Cacace</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Ranieri L.</t>
+          <t>Marin</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Comuzzo</t>
+          <t>Grassi</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Parisi</t>
+          <t>Maleh</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Infantino</t>
+          <t>Baldanzi</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>Amatucci</t>
+          <t>Caputo</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Duncan</t>
+          <t>Cancellieri</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Arthur Melo</t>
+          <t>Caprile</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Ikone'</t>
+          <t>Perisan</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Barak</t>
+          <t>Walukiewicz</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,39 +6433,130 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Sottil</t>
+          <t>Guarino</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Kouame'</t>
+          <t>Bereszynski</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Beltran L.</t>
+          <t>Bastoni S.</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>Kovalenko</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>Fazzini</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>Ranocchia F.</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>Gyasi</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>Shpendi S.</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>Destro</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>Cambiaghi</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
         <v>60</v>
       </c>
     </row>
